--- a/08-03-25 to 08-09-25 Madison Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Madison Schedule.xlsx
@@ -974,11 +974,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>5:00 am meet for Sarah &amp; Lori at Hwy N PnR</t>
-        </is>
-      </c>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -1020,9 +1016,21 @@
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1090,17 +1098,17 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -1161,17 +1169,17 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1240,17 +1248,17 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -1324,12 +1332,12 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -1404,17 +1412,18 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1485,17 +1494,18 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1573,12 +1583,12 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -1660,18 +1670,17 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -1732,18 +1741,17 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1805,12 +1813,12 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1884,12 +1892,12 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1964,12 +1972,12 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2041,21 +2049,9 @@
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2120,21 +2116,9 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2187,21 +2171,13 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2243,7 +2219,11 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCAN-ITEM LEVEL </t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2290,7 +2270,11 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>PICK #410, WATERFORD</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2339,7 +2323,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>515 N MILWAUKEE STREET</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2392,7 +2376,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>https://goo.gl/maps/NZEymR8vwMs</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2444,7 +2428,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>PICK #410, WATERFORD</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2487,7 +2471,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>515 N MILWAUKEE STREET</t>
+          <t>*IL Meet is 4:30 am at IL office</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2528,11 +2512,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/NZEymR8vwMs</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2570,13 +2550,21 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2625,10 +2613,14 @@
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL office</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2668,8 +2660,16 @@
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2705,17 +2705,18 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2768,12 +2769,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2819,12 +2820,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2883,20 +2884,15 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2949,12 +2945,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3020,15 +3016,20 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -3088,15 +3089,20 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3151,15 +3157,20 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3217,22 +3228,9 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3286,22 +3284,9 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3359,22 +3344,13 @@
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3421,7 +3397,11 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3468,7 +3448,11 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>SALE INVENTORY</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3519,7 +3503,11 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>CONTACT IS SUNNY (HE IS THE SELLER)</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3574,7 +3562,11 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>ZZIP STOP, WONEWOC</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3609,7 +3601,11 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>300 CENTER ST</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3636,7 +3632,11 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/qbVnN7tVAnoCsvfL9</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3667,7 +3667,11 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>6:15 am meet for Sarah &amp; Lori at Fest Foods Baraboo</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3728,9 +3732,21 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3759,8 +3775,16 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>

--- a/08-03-25 to 08-09-25 Madison Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Madison Schedule.xlsx
@@ -3048,7 +3048,12 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
@@ -3302,14 +3307,10 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>

--- a/08-03-25 to 08-09-25 Madison Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Madison Schedule.xlsx
@@ -540,7 +540,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rockford cars will now be using the area to the south side of building to meet at</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>

--- a/08-03-25 to 08-09-25 Madison Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Madison Schedule.xlsx
@@ -1120,7 +1120,11 @@
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rockford cars will now be using the area to the south side of building to meet at</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -3039,7 +3043,11 @@
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Rockford cars will now be using the area to the south side of building to meet at</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">

--- a/08-03-25 to 08-09-25 Madison Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Madison Schedule.xlsx
@@ -1817,7 +1817,11 @@
           <t>Justin Lee</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Train w/ Nate</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>

--- a/08-03-25 to 08-09-25 Madison Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Madison Schedule.xlsx
@@ -1228,7 +1228,8 @@
       <c r="K18" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Supv Rx,
+Until 12:00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>

--- a/08-03-25 to 08-09-25 Madison Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Madison Schedule.xlsx
@@ -1820,7 +1820,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Train w/ Nate</t>
+          <t>Go Early and Train w/ Nate</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>

--- a/08-03-25 to 08-09-25 Madison Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Madison Schedule.xlsx
@@ -1668,14 +1668,10 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1743,10 +1739,14 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1815,14 +1815,10 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Go Early and Train w/ Nate</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1894,12 +1890,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>w/ Sarah</t>
+          <t>@ Store early, Train w/ Nate</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1973,13 +1969,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>w/ Sarah</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -2053,12 +2048,13 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>w/ Lori</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2120,12 +2116,12 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Lori</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2175,7 +2171,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2222,7 +2218,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2273,7 +2269,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2324,7 +2320,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2382,9 +2378,21 @@
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
@@ -2474,11 +2482,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
@@ -2519,7 +2523,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2558,7 +2562,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>KELLEY #65, GENOA MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2621,7 +2625,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>439 W MAIN ST</t>
+          <t>KELLEY #65, GENOA MOBIL</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2668,7 +2672,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
+          <t>439 W MAIN ST</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2711,7 +2715,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2775,7 +2779,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2828,7 +2832,11 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:45 am at IL office</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
@@ -2878,22 +2886,9 @@
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
@@ -2946,15 +2941,20 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -3017,12 +3017,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3094,20 +3094,15 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
@@ -3163,17 +3158,18 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -3246,9 +3242,21 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>

--- a/08-03-25 to 08-09-25 Madison Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Madison Schedule.xlsx
@@ -1015,7 +1015,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>STORE RESET-</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
